--- a/02_客户资料/垫付资金利息收取情况表.xlsx
+++ b/02_客户资料/垫付资金利息收取情况表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>垫付资金利息收取情况表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,38 @@
   </si>
   <si>
     <t>借款当日不计息，次日开始计息，到期日当天计息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每月20日为结息日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、每月为30天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、借款日到结息日的天数/每月的平均天数（30）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这3天是怎么回事？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20日是结息日，可能会变么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按项目算？还是按客户算？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前项目：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +420,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,12 +454,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -701,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,21 +763,21 @@
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="12" style="11" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -753,8 +800,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -768,8 +815,8 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -786,8 +833,8 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -798,9 +845,12 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -811,9 +861,12 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
@@ -830,9 +883,12 @@
         <f>E7/28*F7*28</f>
         <v>4800</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
       <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
@@ -844,8 +900,8 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
       <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
@@ -863,26 +919,26 @@
         <v>12224.999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="10">
         <f>G4+G7+G9</f>
         <v>17038.329999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -903,7 +959,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>41689</v>
       </c>
@@ -912,7 +968,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>41690</v>
       </c>
@@ -922,7 +978,7 @@
       <c r="E14" s="13"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -939,8 +995,12 @@
         <v>13.333333333333334</v>
       </c>
       <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I15" s="14">
+        <f>C3*4/30</f>
+        <v>26666.666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>41691</v>
       </c>
@@ -950,7 +1010,7 @@
       <c r="E16" s="13"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>41692</v>
       </c>
@@ -960,7 +1020,7 @@
       <c r="E17" s="13"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>41693</v>
       </c>
@@ -970,7 +1030,7 @@
       <c r="E18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>41694</v>
       </c>
@@ -979,8 +1039,11 @@
       </c>
       <c r="E19" s="13"/>
       <c r="G19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="12">
         <v>41695</v>
       </c>
@@ -990,7 +1053,7 @@
       <c r="E20" s="13"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="12">
         <v>41696</v>
       </c>
@@ -1000,7 +1063,7 @@
       <c r="E21" s="13"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="12">
         <v>41697</v>
       </c>
@@ -1010,7 +1073,7 @@
       <c r="E22" s="13"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="12">
         <v>41698</v>
       </c>
@@ -1020,7 +1083,7 @@
       <c r="E23" s="13"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="12">
         <v>41699</v>
       </c>
@@ -1030,7 +1093,7 @@
       <c r="E24" s="13"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="12">
         <v>41700</v>
       </c>
@@ -1040,7 +1103,7 @@
       <c r="E25" s="13"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="12">
         <v>41701</v>
       </c>
@@ -1050,7 +1113,7 @@
       <c r="E26" s="13"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
         <v>41702</v>
       </c>
@@ -1060,7 +1123,7 @@
       <c r="E27" s="13"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
         <v>41703</v>
       </c>
@@ -1068,10 +1131,14 @@
         <f>200000-100000</f>
         <v>100000</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="D28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
         <v>41704</v>
       </c>
@@ -1079,10 +1146,14 @@
         <f t="shared" ref="C29:C30" si="1">200000-100000</f>
         <v>100000</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="D29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="19"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
         <v>41705</v>
       </c>
@@ -1090,10 +1161,14 @@
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="D30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
         <v>41706</v>
       </c>
@@ -1103,7 +1178,7 @@
       <c r="E31" s="13"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
         <v>41707</v>
       </c>
@@ -1637,10 +1712,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
